--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T10:33:32+07:00</t>
+    <t>2023-12-18T17:49:54+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T17:49:54+07:00</t>
+    <t>2023-12-18T23:39:05+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T23:39:05+07:00</t>
+    <t>2023-12-19T01:00:26+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T01:00:26+07:00</t>
+    <t>2023-12-19T23:50:11+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T17:23:47+07:00</t>
+    <t>2024-05-23T10:54:59+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -880,7 +880,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/CodeSystem/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>Condition.bodySite</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27403" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27407" uniqueCount="1358">
   <si>
     <t>Property</t>
   </si>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:54:59+07:00</t>
+    <t>2024-05-29T21:39:03+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>
@@ -2790,7 +2790,16 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: ?ngen-9? (use: OFFICIAL)</t>
+    <t>https://fhir.kemkes.go.id/id/ihs-number#?ngen-9? (use: official)</t>
+  </si>
+  <si>
+    <t>https://fhir.kemkes.go.id/id/nik#?ngen-9? (use: official)</t>
+  </si>
+  <si>
+    <t>https://fhir.kemkes.go.id/id/nik-ibu#?ngen-9? (use: official)</t>
+  </si>
+  <si>
+    <t>https://fhir.kemkes.go.id/id/passport#?ngen-9? (use: official)</t>
   </si>
   <si>
     <t>ID Core Patient profile</t>
@@ -3670,7 +3679,7 @@
     <t>https://fhir.kemkes.go.id/r4/StructureDefinition/IDCorePractitioner</t>
   </si>
   <si>
-    <t>id: P02478375538 (use: OFFICIAL)</t>
+    <t>https://fhir.kemkes.go.id/id/nakes-his-number#?ngen-9? (use: official)</t>
   </si>
   <si>
     <t>ID Core Practitioner profile</t>
@@ -4357,7 +4366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5968,610 +5977,626 @@
         <v>890</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>6</v>
+        <v>890</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>7</v>
+        <v>893</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>8</v>
+        <v>890</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B213" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>12</v>
+        <v>888</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B217" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>892</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B220" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B221" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>895</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B222" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B223" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>893</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>894</v>
+        <v>191</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>32</v>
+        <v>896</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>34</v>
+        <v>897</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B228" t="s" s="1">
-        <v>1</v>
+      <c r="A228" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B230" t="s" s="2">
-        <v>1173</v>
+      <c r="A230" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>890</v>
+        <v>2</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>890</v>
+        <v>4</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>891</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>6</v>
+        <v>890</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>7</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>8</v>
+        <v>890</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1172</v>
+        <v>892</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B235" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>12</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B239" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>1175</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B242" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B243" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>1178</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B244" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B245" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>1176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>1177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>32</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>34</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B250" t="s" s="1">
-        <v>1</v>
+      <c r="A250" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>1275</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B252" t="s" s="2">
-        <v>1276</v>
+      <c r="A252" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>7</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>1275</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>1277</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>12</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B257" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>1280</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B259" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>1278</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B262" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B263" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>1281</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B264" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B265" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>634</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>835</v>
+        <v>191</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>32</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>34</v>
+        <v>835</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B270" t="s" s="1">
-        <v>1</v>
+      <c r="A270" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>1349</v>
+        <v>34</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B272" t="s" s="2">
-        <v>1350</v>
+      <c r="A272" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B272" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>7</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1349</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>1351</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>12</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B277" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>1354</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B279" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>1352</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B282" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B283" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>1355</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B284" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>634</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>835</v>
+        <v>191</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>32</v>
+        <v>634</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B291" t="s" s="2">
         <v>34</v>
       </c>
     </row>
@@ -62475,14 +62500,14 @@
         <v>888</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F537" s="2"/>
       <c r="G537" t="s" s="2">
@@ -62504,10 +62529,10 @@
         <v>77</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
@@ -62558,7 +62583,7 @@
         <v>74</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>75</v>
@@ -62578,10 +62603,10 @@
         <v>888</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -62683,10 +62708,10 @@
         <v>888</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -62786,10 +62811,10 @@
         <v>888</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -62891,10 +62916,10 @@
         <v>888</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -62996,10 +63021,10 @@
         <v>888</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -63101,10 +63126,10 @@
         <v>888</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -63206,10 +63231,10 @@
         <v>888</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
@@ -63307,13 +63332,13 @@
         <v>888</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E545" t="s" s="2">
         <v>74</v>
@@ -63335,7 +63360,7 @@
         <v>74</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="M545" t="s" s="2">
         <v>148</v>
@@ -63412,10 +63437,10 @@
         <v>888</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -63519,10 +63544,10 @@
         <v>888</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -63548,14 +63573,14 @@
         <v>248</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="O547" s="2"/>
       <c r="P547" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="Q547" t="s" s="2">
         <v>74</v>
@@ -63604,7 +63629,7 @@
         <v>74</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>75</v>
@@ -63624,10 +63649,10 @@
         <v>888</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -63727,10 +63752,10 @@
         <v>888</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -63832,10 +63857,10 @@
         <v>888</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -63861,16 +63886,16 @@
         <v>110</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="O550" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="P550" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="Q550" t="s" s="2">
         <v>74</v>
@@ -63898,10 +63923,10 @@
         <v>177</v>
       </c>
       <c r="Z550" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AA550" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="AB550" t="s" s="2">
         <v>74</v>
@@ -63919,7 +63944,7 @@
         <v>74</v>
       </c>
       <c r="AG550" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="AH550" t="s" s="2">
         <v>75</v>
@@ -63939,10 +63964,10 @@
         <v>888</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -63968,16 +63993,16 @@
         <v>176</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="O551" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="P551" t="s" s="2">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="Q551" t="s" s="2">
         <v>74</v>
@@ -64002,13 +64027,13 @@
         <v>74</v>
       </c>
       <c r="Y551" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="Z551" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="AA551" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="AB551" t="s" s="2">
         <v>74</v>
@@ -64026,7 +64051,7 @@
         <v>74</v>
       </c>
       <c r="AG551" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="AH551" t="s" s="2">
         <v>75</v>
@@ -64046,10 +64071,10 @@
         <v>888</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -64075,16 +64100,16 @@
         <v>103</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="N552" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="O552" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="P552" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="Q552" t="s" s="2">
         <v>74</v>
@@ -64097,7 +64122,7 @@
         <v>74</v>
       </c>
       <c r="U552" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="V552" t="s" s="2">
         <v>74</v>
@@ -64133,7 +64158,7 @@
         <v>74</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>75</v>
@@ -64153,10 +64178,10 @@
         <v>888</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -64182,13 +64207,13 @@
         <v>84</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="O553" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="P553" s="2"/>
       <c r="Q553" t="s" s="2">
@@ -64202,7 +64227,7 @@
         <v>74</v>
       </c>
       <c r="U553" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="V553" t="s" s="2">
         <v>74</v>
@@ -64238,7 +64263,7 @@
         <v>74</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>75</v>
@@ -64258,10 +64283,10 @@
         <v>888</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -64287,10 +64312,10 @@
         <v>404</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="O554" s="2"/>
       <c r="P554" s="2"/>
@@ -64341,7 +64366,7 @@
         <v>74</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>75</v>
@@ -64361,10 +64386,10 @@
         <v>888</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -64390,13 +64415,13 @@
         <v>607</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="O555" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="P555" s="2"/>
       <c r="Q555" t="s" s="2">
@@ -64446,7 +64471,7 @@
         <v>74</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>75</v>
@@ -64466,10 +64491,10 @@
         <v>888</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -64477,7 +64502,7 @@
       </c>
       <c r="F556" s="2"/>
       <c r="G556" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H556" t="s" s="2">
         <v>83</v>
@@ -64495,67 +64520,67 @@
         <v>872</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="O556" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="P556" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="Q556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R556" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="S556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF556" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG556" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="P556" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="Q556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R556" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="S556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF556" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG556" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>75</v>
@@ -64575,10 +64600,10 @@
         <v>888</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -64601,19 +64626,19 @@
         <v>198</v>
       </c>
       <c r="L557" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="M557" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="N557" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="O557" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="P557" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="Q557" t="s" s="2">
         <v>74</v>
@@ -64662,7 +64687,7 @@
         <v>74</v>
       </c>
       <c r="AG557" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="AH557" t="s" s="2">
         <v>75</v>
@@ -64682,10 +64707,10 @@
         <v>888</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -64708,19 +64733,19 @@
         <v>198</v>
       </c>
       <c r="L558" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="M558" t="s" s="2">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="N558" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="O558" t="s" s="2">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="P558" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="Q558" t="s" s="2">
         <v>74</v>
@@ -64769,7 +64794,7 @@
         <v>74</v>
       </c>
       <c r="AG558" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="AH558" t="s" s="2">
         <v>75</v>
@@ -64789,10 +64814,10 @@
         <v>888</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -64818,16 +64843,16 @@
         <v>110</v>
       </c>
       <c r="M559" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N559" t="s" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O559" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="P559" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="Q559" t="s" s="2">
         <v>74</v>
@@ -64855,10 +64880,10 @@
         <v>177</v>
       </c>
       <c r="Z559" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AA559" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="AB559" t="s" s="2">
         <v>74</v>
@@ -64876,7 +64901,7 @@
         <v>74</v>
       </c>
       <c r="AG559" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AH559" t="s" s="2">
         <v>75</v>
@@ -64896,10 +64921,10 @@
         <v>888</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -64922,19 +64947,19 @@
         <v>198</v>
       </c>
       <c r="L560" t="s" s="2">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="M560" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="N560" t="s" s="2">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="O560" t="s" s="2">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="P560" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="Q560" t="s" s="2">
         <v>74</v>
@@ -64983,7 +65008,7 @@
         <v>74</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>75</v>
@@ -65003,10 +65028,10 @@
         <v>888</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -65032,16 +65057,16 @@
         <v>872</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="O561" t="s" s="2">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="P561" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="Q561" t="s" s="2">
         <v>74</v>
@@ -65085,10 +65110,10 @@
         <v>74</v>
       </c>
       <c r="AF561" t="s" s="2">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>75</v>
@@ -65108,13 +65133,13 @@
         <v>888</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="D562" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E562" t="s" s="2">
         <v>74</v>
@@ -65139,16 +65164,16 @@
         <v>872</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="N562" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="O562" t="s" s="2">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="P562" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="Q562" t="s" s="2">
         <v>74</v>
@@ -65197,7 +65222,7 @@
         <v>74</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="AH562" t="s" s="2">
         <v>75</v>
@@ -65217,10 +65242,10 @@
         <v>888</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -65243,19 +65268,19 @@
         <v>198</v>
       </c>
       <c r="L563" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="O563" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="P563" t="s" s="2">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>74</v>
@@ -65304,7 +65329,7 @@
         <v>74</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>75</v>
@@ -65324,10 +65349,10 @@
         <v>888</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -65427,10 +65452,10 @@
         <v>888</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -65530,13 +65555,13 @@
         <v>888</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D566" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E566" t="s" s="2">
         <v>74</v>
@@ -65558,7 +65583,7 @@
         <v>74</v>
       </c>
       <c r="L566" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="M566" t="s" s="2">
         <v>78</v>
@@ -65635,10 +65660,10 @@
         <v>888</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -65664,16 +65689,16 @@
         <v>110</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="O567" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="P567" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>74</v>
@@ -65686,7 +65711,7 @@
         <v>74</v>
       </c>
       <c r="U567" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="V567" t="s" s="2">
         <v>74</v>
@@ -65701,10 +65726,10 @@
         <v>177</v>
       </c>
       <c r="Z567" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="AA567" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="AB567" t="s" s="2">
         <v>74</v>
@@ -65722,7 +65747,7 @@
         <v>74</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>75</v>
@@ -65742,10 +65767,10 @@
         <v>888</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -65771,13 +65796,13 @@
         <v>110</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="P568" s="2"/>
       <c r="Q568" t="s" s="2">
@@ -65791,7 +65816,7 @@
         <v>74</v>
       </c>
       <c r="U568" t="s" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="V568" t="s" s="2">
         <v>74</v>
@@ -65806,10 +65831,10 @@
         <v>177</v>
       </c>
       <c r="Z568" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="AA568" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="AB568" t="s" s="2">
         <v>74</v>
@@ -65827,7 +65852,7 @@
         <v>74</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>75</v>
@@ -65847,10 +65872,10 @@
         <v>888</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -65876,16 +65901,16 @@
         <v>84</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="O569" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="P569" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>74</v>
@@ -65898,7 +65923,7 @@
         <v>74</v>
       </c>
       <c r="U569" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="V569" t="s" s="2">
         <v>74</v>
@@ -65934,7 +65959,7 @@
         <v>74</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>75</v>
@@ -65954,10 +65979,10 @@
         <v>888</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -65983,10 +66008,10 @@
         <v>84</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" s="2"/>
@@ -66001,7 +66026,7 @@
         <v>74</v>
       </c>
       <c r="U570" t="s" s="2">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="V570" t="s" s="2">
         <v>74</v>
@@ -66037,7 +66062,7 @@
         <v>74</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>75</v>
@@ -66057,14 +66082,14 @@
         <v>888</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="F571" s="2"/>
       <c r="G571" t="s" s="2">
@@ -66086,10 +66111,10 @@
         <v>84</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
@@ -66104,7 +66129,7 @@
         <v>74</v>
       </c>
       <c r="U571" t="s" s="2">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="V571" t="s" s="2">
         <v>74</v>
@@ -66140,7 +66165,7 @@
         <v>74</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>75</v>
@@ -66160,14 +66185,14 @@
         <v>888</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" t="s" s="2">
@@ -66189,13 +66214,13 @@
         <v>84</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="O572" t="s" s="2">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -66209,7 +66234,7 @@
         <v>74</v>
       </c>
       <c r="U572" t="s" s="2">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="V572" t="s" s="2">
         <v>74</v>
@@ -66245,7 +66270,7 @@
         <v>74</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>75</v>
@@ -66265,14 +66290,14 @@
         <v>888</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" t="s" s="2">
@@ -66294,10 +66319,10 @@
         <v>84</v>
       </c>
       <c r="M573" t="s" s="2">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="N573" t="s" s="2">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="O573" s="2"/>
       <c r="P573" s="2"/>
@@ -66348,7 +66373,7 @@
         <v>74</v>
       </c>
       <c r="AG573" t="s" s="2">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="AH573" t="s" s="2">
         <v>75</v>
@@ -66368,14 +66393,14 @@
         <v>888</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F574" s="2"/>
       <c r="G574" t="s" s="2">
@@ -66397,10 +66422,10 @@
         <v>84</v>
       </c>
       <c r="M574" t="s" s="2">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="N574" t="s" s="2">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="O574" s="2"/>
       <c r="P574" s="2"/>
@@ -66415,7 +66440,7 @@
         <v>74</v>
       </c>
       <c r="U574" t="s" s="2">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="V574" t="s" s="2">
         <v>74</v>
@@ -66451,7 +66476,7 @@
         <v>74</v>
       </c>
       <c r="AG574" t="s" s="2">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="AH574" t="s" s="2">
         <v>75</v>
@@ -66471,10 +66496,10 @@
         <v>888</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -66500,13 +66525,13 @@
         <v>84</v>
       </c>
       <c r="M575" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="N575" t="s" s="2">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="O575" t="s" s="2">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="P575" s="2"/>
       <c r="Q575" t="s" s="2">
@@ -66556,7 +66581,7 @@
         <v>74</v>
       </c>
       <c r="AG575" t="s" s="2">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="AH575" t="s" s="2">
         <v>75</v>
@@ -66576,10 +66601,10 @@
         <v>888</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -66605,14 +66630,14 @@
         <v>404</v>
       </c>
       <c r="M576" t="s" s="2">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="N576" t="s" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" t="s" s="2">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="Q576" t="s" s="2">
         <v>74</v>
@@ -66625,7 +66650,7 @@
         <v>74</v>
       </c>
       <c r="U576" t="s" s="2">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="V576" t="s" s="2">
         <v>74</v>
@@ -66661,7 +66686,7 @@
         <v>74</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>75</v>
@@ -66681,10 +66706,10 @@
         <v>888</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -66710,14 +66735,14 @@
         <v>176</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="O577" s="2"/>
       <c r="P577" t="s" s="2">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="Q577" t="s" s="2">
         <v>74</v>
@@ -66742,13 +66767,13 @@
         <v>74</v>
       </c>
       <c r="Y577" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="Z577" t="s" s="2">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="AA577" t="s" s="2">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="AB577" t="s" s="2">
         <v>74</v>
@@ -66766,7 +66791,7 @@
         <v>74</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>75</v>
@@ -66786,10 +66811,10 @@
         <v>888</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -66812,19 +66837,19 @@
         <v>74</v>
       </c>
       <c r="L578" t="s" s="2">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="O578" t="s" s="2">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="P578" t="s" s="2">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="Q578" t="s" s="2">
         <v>74</v>
@@ -66871,7 +66896,7 @@
         <v>93</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>75</v>
@@ -66891,13 +66916,13 @@
         <v>888</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D579" t="s" s="2">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E579" t="s" s="2">
         <v>74</v>
@@ -66922,16 +66947,16 @@
         <v>872</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="N579" t="s" s="2">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="O579" t="s" s="2">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="P579" t="s" s="2">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="Q579" t="s" s="2">
         <v>74</v>
@@ -66980,7 +67005,7 @@
         <v>74</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>75</v>
@@ -67000,10 +67025,10 @@
         <v>888</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -67026,19 +67051,19 @@
         <v>74</v>
       </c>
       <c r="L580" t="s" s="2">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="M580" t="s" s="2">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="N580" t="s" s="2">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="O580" t="s" s="2">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="P580" t="s" s="2">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="Q580" t="s" s="2">
         <v>74</v>
@@ -67087,7 +67112,7 @@
         <v>74</v>
       </c>
       <c r="AG580" t="s" s="2">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="AH580" t="s" s="2">
         <v>75</v>
@@ -67107,10 +67132,10 @@
         <v>888</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -67136,16 +67161,16 @@
         <v>324</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="N581" t="s" s="2">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="O581" t="s" s="2">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="P581" t="s" s="2">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="Q581" t="s" s="2">
         <v>74</v>
@@ -67194,7 +67219,7 @@
         <v>74</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>75</v>
@@ -67206,7 +67231,7 @@
         <v>74</v>
       </c>
       <c r="AK581" t="s" s="2">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="582">
@@ -67214,10 +67239,10 @@
         <v>888</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -67317,10 +67342,10 @@
         <v>888</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -67422,10 +67447,10 @@
         <v>888</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -67529,10 +67554,10 @@
         <v>888</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -67558,14 +67583,14 @@
         <v>176</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" t="s" s="2">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="Q585" t="s" s="2">
         <v>74</v>
@@ -67590,13 +67615,13 @@
         <v>74</v>
       </c>
       <c r="Y585" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="Z585" t="s" s="2">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="AA585" t="s" s="2">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="AB585" t="s" s="2">
         <v>74</v>
@@ -67614,7 +67639,7 @@
         <v>74</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>75</v>
@@ -67634,10 +67659,10 @@
         <v>888</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -67660,17 +67685,17 @@
         <v>74</v>
       </c>
       <c r="L586" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="M586" t="s" s="2">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="N586" t="s" s="2">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="O586" s="2"/>
       <c r="P586" t="s" s="2">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="Q586" t="s" s="2">
         <v>74</v>
@@ -67719,7 +67744,7 @@
         <v>74</v>
       </c>
       <c r="AG586" t="s" s="2">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="AH586" t="s" s="2">
         <v>75</v>
@@ -67739,10 +67764,10 @@
         <v>888</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -67765,19 +67790,19 @@
         <v>74</v>
       </c>
       <c r="L587" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="M587" t="s" s="2">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="N587" t="s" s="2">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="O587" t="s" s="2">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="P587" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="Q587" t="s" s="2">
         <v>74</v>
@@ -67826,7 +67851,7 @@
         <v>74</v>
       </c>
       <c r="AG587" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="AH587" t="s" s="2">
         <v>75</v>
@@ -67846,10 +67871,10 @@
         <v>888</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -67872,17 +67897,17 @@
         <v>74</v>
       </c>
       <c r="L588" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="M588" t="s" s="2">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="N588" t="s" s="2">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="O588" s="2"/>
       <c r="P588" t="s" s="2">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="Q588" t="s" s="2">
         <v>74</v>
@@ -67931,7 +67956,7 @@
         <v>74</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>75</v>
@@ -67951,10 +67976,10 @@
         <v>888</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -67980,14 +68005,14 @@
         <v>110</v>
       </c>
       <c r="M589" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N589" t="s" s="2">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="O589" s="2"/>
       <c r="P589" t="s" s="2">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="Q589" t="s" s="2">
         <v>74</v>
@@ -68015,10 +68040,10 @@
         <v>177</v>
       </c>
       <c r="Z589" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AA589" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="AB589" t="s" s="2">
         <v>74</v>
@@ -68036,7 +68061,7 @@
         <v>74</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>75</v>
@@ -68056,10 +68081,10 @@
         <v>888</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -68085,14 +68110,14 @@
         <v>607</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="O590" s="2"/>
       <c r="P590" t="s" s="2">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="Q590" t="s" s="2">
         <v>74</v>
@@ -68141,7 +68166,7 @@
         <v>74</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>75</v>
@@ -68150,7 +68175,7 @@
         <v>83</v>
       </c>
       <c r="AJ590" t="s" s="2">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="AK590" t="s" s="2">
         <v>114</v>
@@ -68161,10 +68186,10 @@
         <v>888</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -68190,10 +68215,10 @@
         <v>404</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="O591" s="2"/>
       <c r="P591" s="2"/>
@@ -68244,7 +68269,7 @@
         <v>74</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>75</v>
@@ -68264,10 +68289,10 @@
         <v>888</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -68293,16 +68318,16 @@
         <v>324</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="O592" t="s" s="2">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="P592" t="s" s="2">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="Q592" t="s" s="2">
         <v>74</v>
@@ -68351,7 +68376,7 @@
         <v>74</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>75</v>
@@ -68371,10 +68396,10 @@
         <v>888</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -68474,10 +68499,10 @@
         <v>888</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -68579,10 +68604,10 @@
         <v>888</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -68686,10 +68711,10 @@
         <v>888</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -68715,16 +68740,16 @@
         <v>176</v>
       </c>
       <c r="M596" t="s" s="2">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="N596" t="s" s="2">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="O596" t="s" s="2">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="P596" t="s" s="2">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="Q596" t="s" s="2">
         <v>74</v>
@@ -68773,7 +68798,7 @@
         <v>74</v>
       </c>
       <c r="AG596" t="s" s="2">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="AH596" t="s" s="2">
         <v>83</v>
@@ -68793,10 +68818,10 @@
         <v>888</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -68822,16 +68847,16 @@
         <v>872</v>
       </c>
       <c r="M597" t="s" s="2">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="N597" t="s" s="2">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="O597" t="s" s="2">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="P597" t="s" s="2">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="Q597" t="s" s="2">
         <v>74</v>
@@ -68880,7 +68905,7 @@
         <v>74</v>
       </c>
       <c r="AG597" t="s" s="2">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="AH597" t="s" s="2">
         <v>75</v>
@@ -68900,14 +68925,14 @@
         <v>888</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="F598" s="2"/>
       <c r="G598" t="s" s="2">
@@ -68926,16 +68951,16 @@
         <v>74</v>
       </c>
       <c r="L598" t="s" s="2">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="M598" t="s" s="2">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="N598" t="s" s="2">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="O598" t="s" s="2">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="P598" s="2"/>
       <c r="Q598" t="s" s="2">
@@ -68985,7 +69010,7 @@
         <v>74</v>
       </c>
       <c r="AG598" t="s" s="2">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="AH598" t="s" s="2">
         <v>75</v>
@@ -69005,10 +69030,10 @@
         <v>888</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -69034,16 +69059,16 @@
         <v>607</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="N599" t="s" s="2">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="O599" t="s" s="2">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="P599" t="s" s="2">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="Q599" t="s" s="2">
         <v>74</v>
@@ -69092,7 +69117,7 @@
         <v>74</v>
       </c>
       <c r="AG599" t="s" s="2">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="AH599" t="s" s="2">
         <v>75</v>
@@ -69112,10 +69137,10 @@
         <v>888</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -69141,16 +69166,16 @@
         <v>324</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="N600" t="s" s="2">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="O600" t="s" s="2">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="P600" t="s" s="2">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="Q600" t="s" s="2">
         <v>74</v>
@@ -69199,7 +69224,7 @@
         <v>74</v>
       </c>
       <c r="AG600" t="s" s="2">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="AH600" t="s" s="2">
         <v>75</v>
@@ -69219,10 +69244,10 @@
         <v>888</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -69322,10 +69347,10 @@
         <v>888</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -69427,10 +69452,10 @@
         <v>888</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -69534,10 +69559,10 @@
         <v>888</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -69560,16 +69585,16 @@
         <v>198</v>
       </c>
       <c r="L604" t="s" s="2">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="M604" t="s" s="2">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="N604" t="s" s="2">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="O604" t="s" s="2">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="P604" s="2"/>
       <c r="Q604" t="s" s="2">
@@ -69619,7 +69644,7 @@
         <v>74</v>
       </c>
       <c r="AG604" t="s" s="2">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>83</v>
@@ -69639,10 +69664,10 @@
         <v>888</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -69668,10 +69693,10 @@
         <v>110</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="N605" t="s" s="2">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="O605" s="2"/>
       <c r="P605" s="2"/>
@@ -69701,28 +69726,28 @@
         <v>177</v>
       </c>
       <c r="Z605" t="s" s="2">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="AA605" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AB605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG605" t="s" s="2">
         <v>1171</v>
-      </c>
-      <c r="AB605" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC605" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD605" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE605" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF605" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG605" t="s" s="2">
-        <v>1168</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>83</v>
@@ -69739,13 +69764,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -69771,10 +69796,10 @@
         <v>77</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="O606" s="2"/>
       <c r="P606" s="2"/>
@@ -69825,7 +69850,7 @@
         <v>74</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>75</v>
@@ -69842,13 +69867,13 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -69947,13 +69972,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -70050,13 +70075,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -70155,13 +70180,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -70260,13 +70285,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -70365,13 +70390,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -70470,13 +70495,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -70571,16 +70596,16 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="D614" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E614" t="s" s="2">
         <v>74</v>
@@ -70602,7 +70627,7 @@
         <v>74</v>
       </c>
       <c r="L614" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="M614" t="s" s="2">
         <v>148</v>
@@ -70676,13 +70701,13 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -70783,13 +70808,13 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -70815,14 +70840,14 @@
         <v>248</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" t="s" s="2">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="Q616" t="s" s="2">
         <v>74</v>
@@ -70871,7 +70896,7 @@
         <v>74</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>75</v>
@@ -70888,13 +70913,13 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -70991,13 +71016,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -71096,13 +71121,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -71128,16 +71153,16 @@
         <v>110</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="O619" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="P619" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="Q619" t="s" s="2">
         <v>74</v>
@@ -71165,10 +71190,10 @@
         <v>177</v>
       </c>
       <c r="Z619" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AA619" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="AB619" t="s" s="2">
         <v>74</v>
@@ -71186,7 +71211,7 @@
         <v>74</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>75</v>
@@ -71203,13 +71228,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -71235,16 +71260,16 @@
         <v>176</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="O620" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="P620" t="s" s="2">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>74</v>
@@ -71269,13 +71294,13 @@
         <v>74</v>
       </c>
       <c r="Y620" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="Z620" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="AA620" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="AB620" t="s" s="2">
         <v>74</v>
@@ -71293,7 +71318,7 @@
         <v>74</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>75</v>
@@ -71310,13 +71335,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -71342,16 +71367,16 @@
         <v>103</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="P621" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="Q621" t="s" s="2">
         <v>74</v>
@@ -71364,7 +71389,7 @@
         <v>74</v>
       </c>
       <c r="U621" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="V621" t="s" s="2">
         <v>74</v>
@@ -71400,7 +71425,7 @@
         <v>74</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>75</v>
@@ -71417,13 +71442,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -71449,13 +71474,13 @@
         <v>84</v>
       </c>
       <c r="M622" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="N622" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="O622" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="P622" s="2"/>
       <c r="Q622" t="s" s="2">
@@ -71469,7 +71494,7 @@
         <v>74</v>
       </c>
       <c r="U622" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="V622" t="s" s="2">
         <v>74</v>
@@ -71505,7 +71530,7 @@
         <v>74</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>75</v>
@@ -71522,13 +71547,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -71554,10 +71579,10 @@
         <v>404</v>
       </c>
       <c r="M623" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="N623" t="s" s="2">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="O623" s="2"/>
       <c r="P623" s="2"/>
@@ -71608,7 +71633,7 @@
         <v>74</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>75</v>
@@ -71625,13 +71650,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -71657,13 +71682,13 @@
         <v>607</v>
       </c>
       <c r="M624" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="N624" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="O624" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="P624" s="2"/>
       <c r="Q624" t="s" s="2">
@@ -71713,7 +71738,7 @@
         <v>74</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>75</v>
@@ -71730,13 +71755,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -71762,67 +71787,67 @@
         <v>872</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="O625" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="P625" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="Q625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R625" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="S625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF625" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG625" t="s" s="2">
         <v>1204</v>
-      </c>
-      <c r="P625" t="s" s="2">
-        <v>1205</v>
-      </c>
-      <c r="Q625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R625" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="S625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF625" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG625" t="s" s="2">
-        <v>1201</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>75</v>
@@ -71839,13 +71864,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -71868,19 +71893,19 @@
         <v>198</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="O626" t="s" s="2">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="P626" t="s" s="2">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="Q626" t="s" s="2">
         <v>74</v>
@@ -71929,7 +71954,7 @@
         <v>74</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>75</v>
@@ -71946,13 +71971,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -71975,19 +72000,19 @@
         <v>198</v>
       </c>
       <c r="L627" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="M627" t="s" s="2">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="N627" t="s" s="2">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="O627" t="s" s="2">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="P627" t="s" s="2">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>74</v>
@@ -72036,7 +72061,7 @@
         <v>74</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>75</v>
@@ -72053,13 +72078,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -72082,19 +72107,19 @@
         <v>198</v>
       </c>
       <c r="L628" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="M628" t="s" s="2">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="N628" t="s" s="2">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="O628" t="s" s="2">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="P628" t="s" s="2">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>74</v>
@@ -72143,7 +72168,7 @@
         <v>74</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>75</v>
@@ -72160,13 +72185,13 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -72263,13 +72288,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -72366,16 +72391,16 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="D631" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E631" t="s" s="2">
         <v>74</v>
@@ -72397,7 +72422,7 @@
         <v>74</v>
       </c>
       <c r="L631" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="M631" t="s" s="2">
         <v>78</v>
@@ -72471,13 +72496,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -72503,16 +72528,16 @@
         <v>110</v>
       </c>
       <c r="M632" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="O632" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="P632" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="Q632" t="s" s="2">
         <v>74</v>
@@ -72525,7 +72550,7 @@
         <v>74</v>
       </c>
       <c r="U632" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="V632" t="s" s="2">
         <v>74</v>
@@ -72540,10 +72565,10 @@
         <v>177</v>
       </c>
       <c r="Z632" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="AA632" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="AB632" t="s" s="2">
         <v>74</v>
@@ -72561,7 +72586,7 @@
         <v>74</v>
       </c>
       <c r="AG632" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="AH632" t="s" s="2">
         <v>75</v>
@@ -72578,13 +72603,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -72610,13 +72635,13 @@
         <v>110</v>
       </c>
       <c r="M633" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="O633" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="P633" s="2"/>
       <c r="Q633" t="s" s="2">
@@ -72630,7 +72655,7 @@
         <v>74</v>
       </c>
       <c r="U633" t="s" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="V633" t="s" s="2">
         <v>74</v>
@@ -72645,10 +72670,10 @@
         <v>177</v>
       </c>
       <c r="Z633" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="AA633" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="AB633" t="s" s="2">
         <v>74</v>
@@ -72666,7 +72691,7 @@
         <v>74</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>75</v>
@@ -72683,13 +72708,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -72715,16 +72740,16 @@
         <v>84</v>
       </c>
       <c r="M634" t="s" s="2">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="N634" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="O634" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="P634" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="Q634" t="s" s="2">
         <v>74</v>
@@ -72737,7 +72762,7 @@
         <v>74</v>
       </c>
       <c r="U634" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="V634" t="s" s="2">
         <v>74</v>
@@ -72773,7 +72798,7 @@
         <v>74</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>75</v>
@@ -72790,13 +72815,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -72822,10 +72847,10 @@
         <v>84</v>
       </c>
       <c r="M635" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="N635" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="O635" s="2"/>
       <c r="P635" s="2"/>
@@ -72840,7 +72865,7 @@
         <v>74</v>
       </c>
       <c r="U635" t="s" s="2">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="V635" t="s" s="2">
         <v>74</v>
@@ -72876,7 +72901,7 @@
         <v>74</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>75</v>
@@ -72893,17 +72918,17 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="F636" s="2"/>
       <c r="G636" t="s" s="2">
@@ -72925,10 +72950,10 @@
         <v>84</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" s="2"/>
@@ -72943,7 +72968,7 @@
         <v>74</v>
       </c>
       <c r="U636" t="s" s="2">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="V636" t="s" s="2">
         <v>74</v>
@@ -72979,7 +73004,7 @@
         <v>74</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>75</v>
@@ -72996,17 +73021,17 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="F637" s="2"/>
       <c r="G637" t="s" s="2">
@@ -73028,13 +73053,13 @@
         <v>84</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="O637" t="s" s="2">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="P637" s="2"/>
       <c r="Q637" t="s" s="2">
@@ -73048,7 +73073,7 @@
         <v>74</v>
       </c>
       <c r="U637" t="s" s="2">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="V637" t="s" s="2">
         <v>74</v>
@@ -73084,7 +73109,7 @@
         <v>74</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>75</v>
@@ -73101,17 +73126,17 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="F638" s="2"/>
       <c r="G638" t="s" s="2">
@@ -73133,10 +73158,10 @@
         <v>84</v>
       </c>
       <c r="M638" t="s" s="2">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="N638" t="s" s="2">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="O638" s="2"/>
       <c r="P638" s="2"/>
@@ -73187,7 +73212,7 @@
         <v>74</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>75</v>
@@ -73204,17 +73229,17 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F639" s="2"/>
       <c r="G639" t="s" s="2">
@@ -73236,10 +73261,10 @@
         <v>84</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="N639" t="s" s="2">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
@@ -73254,7 +73279,7 @@
         <v>74</v>
       </c>
       <c r="U639" t="s" s="2">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="V639" t="s" s="2">
         <v>74</v>
@@ -73290,7 +73315,7 @@
         <v>74</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>75</v>
@@ -73307,13 +73332,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -73339,13 +73364,13 @@
         <v>84</v>
       </c>
       <c r="M640" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="O640" t="s" s="2">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="P640" s="2"/>
       <c r="Q640" t="s" s="2">
@@ -73395,7 +73420,7 @@
         <v>74</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>75</v>
@@ -73412,13 +73437,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -73444,14 +73469,14 @@
         <v>404</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="N641" t="s" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="O641" s="2"/>
       <c r="P641" t="s" s="2">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="Q641" t="s" s="2">
         <v>74</v>
@@ -73464,7 +73489,7 @@
         <v>74</v>
       </c>
       <c r="U641" t="s" s="2">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="V641" t="s" s="2">
         <v>74</v>
@@ -73500,7 +73525,7 @@
         <v>74</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>75</v>
@@ -73517,13 +73542,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -73549,14 +73574,14 @@
         <v>110</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" t="s" s="2">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>74</v>
@@ -73584,10 +73609,10 @@
         <v>177</v>
       </c>
       <c r="Z642" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AA642" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="AB642" t="s" s="2">
         <v>74</v>
@@ -73605,7 +73630,7 @@
         <v>74</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>75</v>
@@ -73622,13 +73647,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -73651,17 +73676,17 @@
         <v>198</v>
       </c>
       <c r="L643" t="s" s="2">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" t="s" s="2">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>74</v>
@@ -73710,7 +73735,7 @@
         <v>74</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>75</v>
@@ -73727,13 +73752,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -73756,17 +73781,17 @@
         <v>74</v>
       </c>
       <c r="L644" t="s" s="2">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="M644" t="s" s="2">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="O644" s="2"/>
       <c r="P644" t="s" s="2">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="Q644" t="s" s="2">
         <v>74</v>
@@ -73815,7 +73840,7 @@
         <v>74</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>75</v>
@@ -73832,13 +73857,13 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -73864,10 +73889,10 @@
         <v>324</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="O645" s="2"/>
       <c r="P645" s="2"/>
@@ -73918,7 +73943,7 @@
         <v>74</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>75</v>
@@ -73935,13 +73960,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -74038,13 +74063,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -74143,13 +74168,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -74250,13 +74275,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -74282,14 +74307,14 @@
         <v>248</v>
       </c>
       <c r="M649" t="s" s="2">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="N649" t="s" s="2">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" t="s" s="2">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="Q649" t="s" s="2">
         <v>74</v>
@@ -74338,7 +74363,7 @@
         <v>74</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>75</v>
@@ -74355,13 +74380,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -74387,10 +74412,10 @@
         <v>176</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="N650" t="s" s="2">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="O650" s="2"/>
       <c r="P650" s="2"/>
@@ -74420,28 +74445,28 @@
         <v>556</v>
       </c>
       <c r="Z650" t="s" s="2">
+        <v>1260</v>
+      </c>
+      <c r="AA650" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="AB650" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC650" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD650" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE650" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF650" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG650" t="s" s="2">
         <v>1257</v>
-      </c>
-      <c r="AA650" t="s" s="2">
-        <v>1258</v>
-      </c>
-      <c r="AB650" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC650" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD650" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE650" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF650" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG650" t="s" s="2">
-        <v>1254</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>83</v>
@@ -74458,13 +74483,13 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -74490,14 +74515,14 @@
         <v>404</v>
       </c>
       <c r="M651" t="s" s="2">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="N651" t="s" s="2">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" t="s" s="2">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="Q651" t="s" s="2">
         <v>74</v>
@@ -74546,7 +74571,7 @@
         <v>74</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>75</v>
@@ -74563,13 +74588,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -74666,13 +74691,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -74771,13 +74796,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -74876,13 +74901,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -74983,13 +75008,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -75015,10 +75040,10 @@
         <v>607</v>
       </c>
       <c r="M656" t="s" s="2">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="N656" t="s" s="2">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="O656" s="2"/>
       <c r="P656" s="2"/>
@@ -75069,7 +75094,7 @@
         <v>74</v>
       </c>
       <c r="AG656" t="s" s="2">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="AH656" t="s" s="2">
         <v>75</v>
@@ -75086,13 +75111,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -75118,16 +75143,16 @@
         <v>176</v>
       </c>
       <c r="M657" t="s" s="2">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="N657" t="s" s="2">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="O657" t="s" s="2">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="P657" t="s" s="2">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="Q657" t="s" s="2">
         <v>74</v>
@@ -75176,7 +75201,7 @@
         <v>74</v>
       </c>
       <c r="AG657" t="s" s="2">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="AH657" t="s" s="2">
         <v>75</v>
@@ -75193,7 +75218,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>634</v>
@@ -75298,7 +75323,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>641</v>
@@ -75403,7 +75428,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>642</v>
@@ -75506,7 +75531,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>643</v>
@@ -75611,7 +75636,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>644</v>
@@ -75716,7 +75741,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>645</v>
@@ -75821,7 +75846,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>646</v>
@@ -75926,7 +75951,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>647</v>
@@ -76031,7 +76056,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>648</v>
@@ -76138,7 +76163,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>649</v>
@@ -76243,7 +76268,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>653</v>
@@ -76348,7 +76373,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>659</v>
@@ -76453,7 +76478,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>665</v>
@@ -76558,7 +76583,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>671</v>
@@ -76663,7 +76688,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>838</v>
@@ -76766,7 +76791,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>839</v>
@@ -76871,7 +76896,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>840</v>
@@ -76978,7 +77003,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>846</v>
@@ -77081,7 +77106,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>847</v>
@@ -77186,7 +77211,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>848</v>
@@ -77293,7 +77318,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>855</v>
@@ -77398,7 +77423,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>860</v>
@@ -77503,7 +77528,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>866</v>
@@ -77608,7 +77633,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>871</v>
@@ -77715,7 +77740,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>878</v>
@@ -77822,7 +77847,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>677</v>
@@ -77927,13 +77952,13 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -78030,13 +78055,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -78135,13 +78160,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -78213,7 +78238,7 @@
         <v>74</v>
       </c>
       <c r="AC686" t="s" s="2">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="AD686" s="2"/>
       <c r="AE686" t="s" s="2">
@@ -78240,16 +78265,16 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="D687" t="s" s="2">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="E687" t="s" s="2">
         <v>74</v>
@@ -78349,13 +78374,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -78452,13 +78477,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -78557,13 +78582,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -78605,7 +78630,7 @@
       </c>
       <c r="R690" s="2"/>
       <c r="S690" t="s" s="2">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="T690" t="s" s="2">
         <v>74</v>
@@ -78664,13 +78689,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -78769,13 +78794,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -78815,7 +78840,7 @@
       </c>
       <c r="R692" s="2"/>
       <c r="S692" t="s" s="2">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="T692" t="s" s="2">
         <v>74</v>
@@ -78874,13 +78899,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -78906,7 +78931,7 @@
         <v>84</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="N693" t="s" s="2">
         <v>868</v>
@@ -78979,13 +79004,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -79086,13 +79111,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -79193,7 +79218,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>684</v>
@@ -79300,7 +79325,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>690</v>
@@ -79405,7 +79430,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>694</v>
@@ -79512,7 +79537,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>700</v>
@@ -79619,7 +79644,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>707</v>
@@ -79724,7 +79749,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>712</v>
@@ -79829,7 +79854,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>717</v>
@@ -79858,7 +79883,7 @@
         <v>198</v>
       </c>
       <c r="L702" t="s" s="2">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="M702" t="s" s="2">
         <v>719</v>
@@ -79914,7 +79939,7 @@
         <v>74</v>
       </c>
       <c r="AF702" t="s" s="2">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="AG702" t="s" s="2">
         <v>717</v>
@@ -79934,16 +79959,16 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C703" t="s" s="2">
         <v>717</v>
       </c>
       <c r="D703" t="s" s="2">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E703" t="s" s="2">
         <v>74</v>
@@ -79965,7 +79990,7 @@
         <v>198</v>
       </c>
       <c r="L703" t="s" s="2">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="M703" t="s" s="2">
         <v>719</v>
@@ -80043,13 +80068,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -80146,13 +80171,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -80251,13 +80276,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -80280,19 +80305,19 @@
         <v>198</v>
       </c>
       <c r="L706" t="s" s="2">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="O706" t="s" s="2">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="P706" t="s" s="2">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="Q706" t="s" s="2">
         <v>74</v>
@@ -80341,7 +80366,7 @@
         <v>74</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>75</v>
@@ -80358,13 +80383,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -80390,20 +80415,20 @@
         <v>110</v>
       </c>
       <c r="M707" t="s" s="2">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="N707" t="s" s="2">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="O707" s="2"/>
       <c r="P707" t="s" s="2">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="Q707" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R707" t="s" s="2">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="S707" t="s" s="2">
         <v>74</v>
@@ -80427,10 +80452,10 @@
         <v>177</v>
       </c>
       <c r="Z707" t="s" s="2">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="AA707" t="s" s="2">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="AB707" t="s" s="2">
         <v>74</v>
@@ -80448,7 +80473,7 @@
         <v>74</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>75</v>
@@ -80465,13 +80490,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -80497,14 +80522,14 @@
         <v>84</v>
       </c>
       <c r="M708" t="s" s="2">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="N708" t="s" s="2">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="O708" s="2"/>
       <c r="P708" t="s" s="2">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="Q708" t="s" s="2">
         <v>74</v>
@@ -80553,7 +80578,7 @@
         <v>74</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>75</v>
@@ -80570,13 +80595,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -80602,21 +80627,21 @@
         <v>103</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="O709" s="2"/>
       <c r="P709" t="s" s="2">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="Q709" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R709" s="2"/>
       <c r="S709" t="s" s="2">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="T709" t="s" s="2">
         <v>74</v>
@@ -80658,7 +80683,7 @@
         <v>74</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>75</v>
@@ -80667,7 +80692,7 @@
         <v>83</v>
       </c>
       <c r="AJ709" t="s" s="2">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="AK709" t="s" s="2">
         <v>114</v>
@@ -80675,13 +80700,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -80707,23 +80732,23 @@
         <v>110</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="O710" t="s" s="2">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="P710" t="s" s="2">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="Q710" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R710" s="2"/>
       <c r="S710" t="s" s="2">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="T710" t="s" s="2">
         <v>74</v>
@@ -80765,7 +80790,7 @@
         <v>74</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>75</v>
@@ -80782,7 +80807,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>724</v>
@@ -80887,7 +80912,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>731</v>
@@ -80992,7 +81017,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>738</v>
@@ -81099,7 +81124,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>743</v>
@@ -81202,7 +81227,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>748</v>
@@ -81307,7 +81332,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>754</v>
@@ -81412,7 +81437,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>759</v>
@@ -81517,7 +81542,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>764</v>
@@ -81624,7 +81649,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>770</v>
@@ -81727,7 +81752,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>771</v>
@@ -81832,7 +81857,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>772</v>
@@ -81939,7 +81964,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>773</v>
@@ -82042,7 +82067,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>778</v>
@@ -82145,7 +82170,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>781</v>
@@ -82250,7 +82275,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>787</v>
@@ -82355,7 +82380,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>793</v>
@@ -82460,7 +82485,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>798</v>
@@ -82563,7 +82588,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>801</v>
@@ -82668,7 +82693,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B729" t="s" s="2">
         <v>806</v>
@@ -82773,7 +82798,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B730" t="s" s="2">
         <v>811</v>
@@ -82880,7 +82905,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B731" t="s" s="2">
         <v>816</v>
@@ -82983,7 +83008,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B732" t="s" s="2">
         <v>817</v>
@@ -83088,7 +83113,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B733" t="s" s="2">
         <v>818</v>
@@ -83195,7 +83220,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B734" t="s" s="2">
         <v>819</v>
@@ -83300,7 +83325,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B735" t="s" s="2">
         <v>823</v>
@@ -83407,7 +83432,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B736" t="s" s="2">
         <v>826</v>
@@ -83512,7 +83537,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B737" t="s" s="2">
         <v>830</v>
@@ -83617,7 +83642,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B738" t="s" s="2">
         <v>831</v>
@@ -83724,7 +83749,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B739" t="s" s="2">
         <v>634</v>
@@ -83829,7 +83854,7 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B740" t="s" s="2">
         <v>641</v>
@@ -83934,7 +83959,7 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B741" t="s" s="2">
         <v>642</v>
@@ -84037,7 +84062,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B742" t="s" s="2">
         <v>643</v>
@@ -84142,7 +84167,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B743" t="s" s="2">
         <v>644</v>
@@ -84247,7 +84272,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B744" t="s" s="2">
         <v>645</v>
@@ -84352,7 +84377,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B745" t="s" s="2">
         <v>646</v>
@@ -84457,7 +84482,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B746" t="s" s="2">
         <v>647</v>
@@ -84562,7 +84587,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B747" t="s" s="2">
         <v>648</v>
@@ -84669,7 +84694,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B748" t="s" s="2">
         <v>649</v>
@@ -84774,7 +84799,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B749" t="s" s="2">
         <v>653</v>
@@ -84879,7 +84904,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B750" t="s" s="2">
         <v>659</v>
@@ -84984,7 +85009,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B751" t="s" s="2">
         <v>665</v>
@@ -85089,7 +85114,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B752" t="s" s="2">
         <v>671</v>
@@ -85194,7 +85219,7 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B753" t="s" s="2">
         <v>838</v>
@@ -85297,7 +85322,7 @@
     </row>
     <row r="754">
       <c r="A754" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B754" t="s" s="2">
         <v>839</v>
@@ -85402,7 +85427,7 @@
     </row>
     <row r="755">
       <c r="A755" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B755" t="s" s="2">
         <v>840</v>
@@ -85509,7 +85534,7 @@
     </row>
     <row r="756">
       <c r="A756" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B756" t="s" s="2">
         <v>846</v>
@@ -85612,7 +85637,7 @@
     </row>
     <row r="757">
       <c r="A757" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B757" t="s" s="2">
         <v>847</v>
@@ -85717,7 +85742,7 @@
     </row>
     <row r="758">
       <c r="A758" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B758" t="s" s="2">
         <v>848</v>
@@ -85824,7 +85849,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B759" t="s" s="2">
         <v>855</v>
@@ -85929,7 +85954,7 @@
     </row>
     <row r="760">
       <c r="A760" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B760" t="s" s="2">
         <v>860</v>
@@ -86034,7 +86059,7 @@
     </row>
     <row r="761">
       <c r="A761" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B761" t="s" s="2">
         <v>866</v>
@@ -86139,7 +86164,7 @@
     </row>
     <row r="762">
       <c r="A762" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B762" t="s" s="2">
         <v>871</v>
@@ -86246,7 +86271,7 @@
     </row>
     <row r="763">
       <c r="A763" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B763" t="s" s="2">
         <v>878</v>
@@ -86353,7 +86378,7 @@
     </row>
     <row r="764">
       <c r="A764" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B764" t="s" s="2">
         <v>677</v>
@@ -86458,13 +86483,13 @@
     </row>
     <row r="765">
       <c r="A765" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B765" t="s" s="2">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C765" t="s" s="2">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="D765" s="2"/>
       <c r="E765" t="s" s="2">
@@ -86561,13 +86586,13 @@
     </row>
     <row r="766">
       <c r="A766" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B766" t="s" s="2">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C766" t="s" s="2">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D766" s="2"/>
       <c r="E766" t="s" s="2">
@@ -86666,13 +86691,13 @@
     </row>
     <row r="767">
       <c r="A767" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B767" t="s" s="2">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C767" t="s" s="2">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="D767" s="2"/>
       <c r="E767" t="s" s="2">
@@ -86744,7 +86769,7 @@
         <v>74</v>
       </c>
       <c r="AC767" t="s" s="2">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="AD767" s="2"/>
       <c r="AE767" t="s" s="2">
@@ -86771,16 +86796,16 @@
     </row>
     <row r="768">
       <c r="A768" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B768" t="s" s="2">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C768" t="s" s="2">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="D768" t="s" s="2">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="E768" t="s" s="2">
         <v>74</v>
@@ -86880,13 +86905,13 @@
     </row>
     <row r="769">
       <c r="A769" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B769" t="s" s="2">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C769" t="s" s="2">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D769" s="2"/>
       <c r="E769" t="s" s="2">
@@ -86983,13 +87008,13 @@
     </row>
     <row r="770">
       <c r="A770" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B770" t="s" s="2">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C770" t="s" s="2">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D770" s="2"/>
       <c r="E770" t="s" s="2">
@@ -87088,13 +87113,13 @@
     </row>
     <row r="771">
       <c r="A771" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B771" t="s" s="2">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C771" t="s" s="2">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="D771" s="2"/>
       <c r="E771" t="s" s="2">
@@ -87136,7 +87161,7 @@
       </c>
       <c r="R771" s="2"/>
       <c r="S771" t="s" s="2">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="T771" t="s" s="2">
         <v>74</v>
@@ -87195,13 +87220,13 @@
     </row>
     <row r="772">
       <c r="A772" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B772" t="s" s="2">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="C772" t="s" s="2">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="D772" s="2"/>
       <c r="E772" t="s" s="2">
@@ -87300,13 +87325,13 @@
     </row>
     <row r="773">
       <c r="A773" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B773" t="s" s="2">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="C773" t="s" s="2">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="D773" s="2"/>
       <c r="E773" t="s" s="2">
@@ -87346,7 +87371,7 @@
       </c>
       <c r="R773" s="2"/>
       <c r="S773" t="s" s="2">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="T773" t="s" s="2">
         <v>74</v>
@@ -87405,13 +87430,13 @@
     </row>
     <row r="774">
       <c r="A774" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B774" t="s" s="2">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C774" t="s" s="2">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D774" s="2"/>
       <c r="E774" t="s" s="2">
@@ -87437,7 +87462,7 @@
         <v>84</v>
       </c>
       <c r="M774" t="s" s="2">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="N774" t="s" s="2">
         <v>868</v>
@@ -87510,13 +87535,13 @@
     </row>
     <row r="775">
       <c r="A775" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B775" t="s" s="2">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C775" t="s" s="2">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D775" s="2"/>
       <c r="E775" t="s" s="2">
@@ -87617,13 +87642,13 @@
     </row>
     <row r="776">
       <c r="A776" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B776" t="s" s="2">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="C776" t="s" s="2">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D776" s="2"/>
       <c r="E776" t="s" s="2">
@@ -87724,7 +87749,7 @@
     </row>
     <row r="777">
       <c r="A777" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B777" t="s" s="2">
         <v>684</v>
@@ -87831,7 +87856,7 @@
     </row>
     <row r="778">
       <c r="A778" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B778" t="s" s="2">
         <v>690</v>
@@ -87936,7 +87961,7 @@
     </row>
     <row r="779">
       <c r="A779" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B779" t="s" s="2">
         <v>694</v>
@@ -88043,7 +88068,7 @@
     </row>
     <row r="780">
       <c r="A780" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B780" t="s" s="2">
         <v>700</v>
@@ -88150,7 +88175,7 @@
     </row>
     <row r="781">
       <c r="A781" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B781" t="s" s="2">
         <v>707</v>
@@ -88255,7 +88280,7 @@
     </row>
     <row r="782">
       <c r="A782" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B782" t="s" s="2">
         <v>712</v>
@@ -88360,7 +88385,7 @@
     </row>
     <row r="783">
       <c r="A783" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B783" t="s" s="2">
         <v>717</v>
@@ -88389,7 +88414,7 @@
         <v>198</v>
       </c>
       <c r="L783" t="s" s="2">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="M783" t="s" s="2">
         <v>719</v>
@@ -88445,7 +88470,7 @@
         <v>74</v>
       </c>
       <c r="AF783" t="s" s="2">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="AG783" t="s" s="2">
         <v>717</v>
@@ -88465,16 +88490,16 @@
     </row>
     <row r="784">
       <c r="A784" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B784" t="s" s="2">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="C784" t="s" s="2">
         <v>717</v>
       </c>
       <c r="D784" t="s" s="2">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E784" t="s" s="2">
         <v>74</v>
@@ -88496,7 +88521,7 @@
         <v>198</v>
       </c>
       <c r="L784" t="s" s="2">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="M784" t="s" s="2">
         <v>719</v>
@@ -88574,13 +88599,13 @@
     </row>
     <row r="785">
       <c r="A785" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B785" t="s" s="2">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C785" t="s" s="2">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="D785" s="2"/>
       <c r="E785" t="s" s="2">
@@ -88677,13 +88702,13 @@
     </row>
     <row r="786">
       <c r="A786" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B786" t="s" s="2">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="C786" t="s" s="2">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="D786" s="2"/>
       <c r="E786" t="s" s="2">
@@ -88782,13 +88807,13 @@
     </row>
     <row r="787">
       <c r="A787" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B787" t="s" s="2">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="C787" t="s" s="2">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="D787" s="2"/>
       <c r="E787" t="s" s="2">
@@ -88811,19 +88836,19 @@
         <v>198</v>
       </c>
       <c r="L787" t="s" s="2">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="M787" t="s" s="2">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="N787" t="s" s="2">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="O787" t="s" s="2">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="P787" t="s" s="2">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="Q787" t="s" s="2">
         <v>74</v>
@@ -88872,7 +88897,7 @@
         <v>74</v>
       </c>
       <c r="AG787" t="s" s="2">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="AH787" t="s" s="2">
         <v>75</v>
@@ -88889,13 +88914,13 @@
     </row>
     <row r="788">
       <c r="A788" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B788" t="s" s="2">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="C788" t="s" s="2">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D788" s="2"/>
       <c r="E788" t="s" s="2">
@@ -88921,20 +88946,20 @@
         <v>110</v>
       </c>
       <c r="M788" t="s" s="2">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="N788" t="s" s="2">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="O788" s="2"/>
       <c r="P788" t="s" s="2">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="Q788" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R788" t="s" s="2">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="S788" t="s" s="2">
         <v>74</v>
@@ -88958,10 +88983,10 @@
         <v>177</v>
       </c>
       <c r="Z788" t="s" s="2">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="AA788" t="s" s="2">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="AB788" t="s" s="2">
         <v>74</v>
@@ -88979,7 +89004,7 @@
         <v>74</v>
       </c>
       <c r="AG788" t="s" s="2">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="AH788" t="s" s="2">
         <v>75</v>
@@ -88996,13 +89021,13 @@
     </row>
     <row r="789">
       <c r="A789" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B789" t="s" s="2">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="C789" t="s" s="2">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="D789" s="2"/>
       <c r="E789" t="s" s="2">
@@ -89028,14 +89053,14 @@
         <v>84</v>
       </c>
       <c r="M789" t="s" s="2">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="N789" t="s" s="2">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="O789" s="2"/>
       <c r="P789" t="s" s="2">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="Q789" t="s" s="2">
         <v>74</v>
@@ -89084,7 +89109,7 @@
         <v>74</v>
       </c>
       <c r="AG789" t="s" s="2">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="AH789" t="s" s="2">
         <v>75</v>
@@ -89101,13 +89126,13 @@
     </row>
     <row r="790">
       <c r="A790" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B790" t="s" s="2">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="C790" t="s" s="2">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D790" s="2"/>
       <c r="E790" t="s" s="2">
@@ -89133,21 +89158,21 @@
         <v>103</v>
       </c>
       <c r="M790" t="s" s="2">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="N790" t="s" s="2">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="O790" s="2"/>
       <c r="P790" t="s" s="2">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="Q790" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R790" s="2"/>
       <c r="S790" t="s" s="2">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="T790" t="s" s="2">
         <v>74</v>
@@ -89189,7 +89214,7 @@
         <v>74</v>
       </c>
       <c r="AG790" t="s" s="2">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="AH790" t="s" s="2">
         <v>75</v>
@@ -89198,7 +89223,7 @@
         <v>83</v>
       </c>
       <c r="AJ790" t="s" s="2">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="AK790" t="s" s="2">
         <v>114</v>
@@ -89206,13 +89231,13 @@
     </row>
     <row r="791">
       <c r="A791" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B791" t="s" s="2">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="C791" t="s" s="2">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D791" s="2"/>
       <c r="E791" t="s" s="2">
@@ -89238,23 +89263,23 @@
         <v>110</v>
       </c>
       <c r="M791" t="s" s="2">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="N791" t="s" s="2">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="O791" t="s" s="2">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="P791" t="s" s="2">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="Q791" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R791" s="2"/>
       <c r="S791" t="s" s="2">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="T791" t="s" s="2">
         <v>74</v>
@@ -89296,7 +89321,7 @@
         <v>74</v>
       </c>
       <c r="AG791" t="s" s="2">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="AH791" t="s" s="2">
         <v>75</v>
@@ -89313,7 +89338,7 @@
     </row>
     <row r="792">
       <c r="A792" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B792" t="s" s="2">
         <v>724</v>
@@ -89418,7 +89443,7 @@
     </row>
     <row r="793">
       <c r="A793" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B793" t="s" s="2">
         <v>731</v>
@@ -89523,7 +89548,7 @@
     </row>
     <row r="794">
       <c r="A794" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B794" t="s" s="2">
         <v>738</v>
@@ -89630,7 +89655,7 @@
     </row>
     <row r="795">
       <c r="A795" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B795" t="s" s="2">
         <v>743</v>
@@ -89733,7 +89758,7 @@
     </row>
     <row r="796">
       <c r="A796" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B796" t="s" s="2">
         <v>748</v>
@@ -89838,7 +89863,7 @@
     </row>
     <row r="797">
       <c r="A797" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B797" t="s" s="2">
         <v>754</v>
@@ -89943,7 +89968,7 @@
     </row>
     <row r="798">
       <c r="A798" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B798" t="s" s="2">
         <v>759</v>
@@ -90048,7 +90073,7 @@
     </row>
     <row r="799">
       <c r="A799" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B799" t="s" s="2">
         <v>764</v>
@@ -90155,7 +90180,7 @@
     </row>
     <row r="800">
       <c r="A800" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B800" t="s" s="2">
         <v>770</v>
@@ -90258,7 +90283,7 @@
     </row>
     <row r="801">
       <c r="A801" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B801" t="s" s="2">
         <v>771</v>
@@ -90363,7 +90388,7 @@
     </row>
     <row r="802">
       <c r="A802" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B802" t="s" s="2">
         <v>772</v>
@@ -90470,7 +90495,7 @@
     </row>
     <row r="803">
       <c r="A803" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B803" t="s" s="2">
         <v>773</v>
@@ -90573,7 +90598,7 @@
     </row>
     <row r="804">
       <c r="A804" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B804" t="s" s="2">
         <v>778</v>
@@ -90676,7 +90701,7 @@
     </row>
     <row r="805">
       <c r="A805" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B805" t="s" s="2">
         <v>781</v>
@@ -90781,7 +90806,7 @@
     </row>
     <row r="806">
       <c r="A806" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B806" t="s" s="2">
         <v>787</v>
@@ -90886,7 +90911,7 @@
     </row>
     <row r="807">
       <c r="A807" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B807" t="s" s="2">
         <v>793</v>
@@ -90991,7 +91016,7 @@
     </row>
     <row r="808">
       <c r="A808" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B808" t="s" s="2">
         <v>798</v>
@@ -91094,7 +91119,7 @@
     </row>
     <row r="809">
       <c r="A809" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B809" t="s" s="2">
         <v>801</v>
@@ -91199,7 +91224,7 @@
     </row>
     <row r="810">
       <c r="A810" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B810" t="s" s="2">
         <v>806</v>
@@ -91304,7 +91329,7 @@
     </row>
     <row r="811">
       <c r="A811" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B811" t="s" s="2">
         <v>811</v>
@@ -91411,7 +91436,7 @@
     </row>
     <row r="812">
       <c r="A812" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B812" t="s" s="2">
         <v>816</v>
@@ -91514,7 +91539,7 @@
     </row>
     <row r="813">
       <c r="A813" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B813" t="s" s="2">
         <v>817</v>
@@ -91619,7 +91644,7 @@
     </row>
     <row r="814">
       <c r="A814" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B814" t="s" s="2">
         <v>818</v>
@@ -91726,7 +91751,7 @@
     </row>
     <row r="815">
       <c r="A815" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B815" t="s" s="2">
         <v>819</v>
@@ -91831,7 +91856,7 @@
     </row>
     <row r="816">
       <c r="A816" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B816" t="s" s="2">
         <v>823</v>
@@ -91938,7 +91963,7 @@
     </row>
     <row r="817">
       <c r="A817" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B817" t="s" s="2">
         <v>826</v>
@@ -92043,7 +92068,7 @@
     </row>
     <row r="818">
       <c r="A818" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B818" t="s" s="2">
         <v>830</v>
@@ -92148,7 +92173,7 @@
     </row>
     <row r="819">
       <c r="A819" t="s" s="2">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B819" t="s" s="2">
         <v>831</v>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27407" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27407" uniqueCount="1360">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4086,6 +4086,10 @@
     <t>valueQuantity</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dias-ele-1:Observation value should be between 0 - 450 #mm[Hg] {Observation.value.as(Quantity).value &gt;= 0 and Observation.value.as(Quantity).value &lt;= 450}</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueQuantity.id</t>
   </si>
   <si>
@@ -4233,6 +4237,10 @@
   </si>
   <si>
     <t>Systolic blood pressure</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+sys-ele-1:Observation value should be between 0 - 450 #mm[Hg] {Observation.value.as(Quantity).value &gt;= 0 and Observation.value.as(Quantity).value &lt;= 450}</t>
   </si>
 </sst>
 </file>
@@ -6459,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="274">
@@ -6467,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="275">
@@ -6483,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="277">
@@ -6491,7 +6499,7 @@
         <v>9</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="278">
@@ -6537,7 +6545,7 @@
         <v>20</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="284">
@@ -80063,7 +80071,7 @@
         <v>723</v>
       </c>
       <c r="AK703" t="s" s="2">
-        <v>114</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="704">
@@ -80071,10 +80079,10 @@
         <v>1278</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -80174,10 +80182,10 @@
         <v>1278</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -80279,10 +80287,10 @@
         <v>1278</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -80305,19 +80313,19 @@
         <v>198</v>
       </c>
       <c r="L706" t="s" s="2">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="O706" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="P706" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="Q706" t="s" s="2">
         <v>74</v>
@@ -80366,7 +80374,7 @@
         <v>74</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>75</v>
@@ -80386,10 +80394,10 @@
         <v>1278</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -80415,20 +80423,20 @@
         <v>110</v>
       </c>
       <c r="M707" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="N707" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="O707" s="2"/>
       <c r="P707" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="Q707" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R707" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="S707" t="s" s="2">
         <v>74</v>
@@ -80452,10 +80460,10 @@
         <v>177</v>
       </c>
       <c r="Z707" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="AA707" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AB707" t="s" s="2">
         <v>74</v>
@@ -80473,7 +80481,7 @@
         <v>74</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>75</v>
@@ -80493,10 +80501,10 @@
         <v>1278</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -80522,14 +80530,14 @@
         <v>84</v>
       </c>
       <c r="M708" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="N708" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="O708" s="2"/>
       <c r="P708" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="Q708" t="s" s="2">
         <v>74</v>
@@ -80578,7 +80586,7 @@
         <v>74</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>75</v>
@@ -80598,10 +80606,10 @@
         <v>1278</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -80627,21 +80635,21 @@
         <v>103</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="O709" s="2"/>
       <c r="P709" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="Q709" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R709" s="2"/>
       <c r="S709" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="T709" t="s" s="2">
         <v>74</v>
@@ -80683,7 +80691,7 @@
         <v>74</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>75</v>
@@ -80692,7 +80700,7 @@
         <v>83</v>
       </c>
       <c r="AJ709" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AK709" t="s" s="2">
         <v>114</v>
@@ -80703,10 +80711,10 @@
         <v>1278</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -80732,23 +80740,23 @@
         <v>110</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="O710" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="P710" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="Q710" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R710" s="2"/>
       <c r="S710" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="T710" t="s" s="2">
         <v>74</v>
@@ -80790,7 +80798,7 @@
         <v>74</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>75</v>
@@ -83749,7 +83757,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B739" t="s" s="2">
         <v>634</v>
@@ -83854,7 +83862,7 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B740" t="s" s="2">
         <v>641</v>
@@ -83959,7 +83967,7 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B741" t="s" s="2">
         <v>642</v>
@@ -84062,7 +84070,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B742" t="s" s="2">
         <v>643</v>
@@ -84167,7 +84175,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B743" t="s" s="2">
         <v>644</v>
@@ -84272,7 +84280,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B744" t="s" s="2">
         <v>645</v>
@@ -84377,7 +84385,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B745" t="s" s="2">
         <v>646</v>
@@ -84482,7 +84490,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B746" t="s" s="2">
         <v>647</v>
@@ -84587,7 +84595,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B747" t="s" s="2">
         <v>648</v>
@@ -84694,7 +84702,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B748" t="s" s="2">
         <v>649</v>
@@ -84799,7 +84807,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B749" t="s" s="2">
         <v>653</v>
@@ -84904,7 +84912,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B750" t="s" s="2">
         <v>659</v>
@@ -85009,7 +85017,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B751" t="s" s="2">
         <v>665</v>
@@ -85114,7 +85122,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B752" t="s" s="2">
         <v>671</v>
@@ -85219,7 +85227,7 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B753" t="s" s="2">
         <v>838</v>
@@ -85322,7 +85330,7 @@
     </row>
     <row r="754">
       <c r="A754" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B754" t="s" s="2">
         <v>839</v>
@@ -85427,7 +85435,7 @@
     </row>
     <row r="755">
       <c r="A755" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B755" t="s" s="2">
         <v>840</v>
@@ -85534,7 +85542,7 @@
     </row>
     <row r="756">
       <c r="A756" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B756" t="s" s="2">
         <v>846</v>
@@ -85637,7 +85645,7 @@
     </row>
     <row r="757">
       <c r="A757" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B757" t="s" s="2">
         <v>847</v>
@@ -85742,7 +85750,7 @@
     </row>
     <row r="758">
       <c r="A758" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B758" t="s" s="2">
         <v>848</v>
@@ -85849,7 +85857,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B759" t="s" s="2">
         <v>855</v>
@@ -85954,7 +85962,7 @@
     </row>
     <row r="760">
       <c r="A760" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B760" t="s" s="2">
         <v>860</v>
@@ -86059,7 +86067,7 @@
     </row>
     <row r="761">
       <c r="A761" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B761" t="s" s="2">
         <v>866</v>
@@ -86164,7 +86172,7 @@
     </row>
     <row r="762">
       <c r="A762" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B762" t="s" s="2">
         <v>871</v>
@@ -86271,7 +86279,7 @@
     </row>
     <row r="763">
       <c r="A763" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B763" t="s" s="2">
         <v>878</v>
@@ -86378,7 +86386,7 @@
     </row>
     <row r="764">
       <c r="A764" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B764" t="s" s="2">
         <v>677</v>
@@ -86483,7 +86491,7 @@
     </row>
     <row r="765">
       <c r="A765" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B765" t="s" s="2">
         <v>1282</v>
@@ -86586,7 +86594,7 @@
     </row>
     <row r="766">
       <c r="A766" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B766" t="s" s="2">
         <v>1283</v>
@@ -86691,7 +86699,7 @@
     </row>
     <row r="767">
       <c r="A767" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B767" t="s" s="2">
         <v>1284</v>
@@ -86796,7 +86804,7 @@
     </row>
     <row r="768">
       <c r="A768" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B768" t="s" s="2">
         <v>1286</v>
@@ -86905,7 +86913,7 @@
     </row>
     <row r="769">
       <c r="A769" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B769" t="s" s="2">
         <v>1288</v>
@@ -87008,7 +87016,7 @@
     </row>
     <row r="770">
       <c r="A770" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B770" t="s" s="2">
         <v>1290</v>
@@ -87113,7 +87121,7 @@
     </row>
     <row r="771">
       <c r="A771" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B771" t="s" s="2">
         <v>1292</v>
@@ -87220,7 +87228,7 @@
     </row>
     <row r="772">
       <c r="A772" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B772" t="s" s="2">
         <v>1295</v>
@@ -87325,7 +87333,7 @@
     </row>
     <row r="773">
       <c r="A773" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B773" t="s" s="2">
         <v>1297</v>
@@ -87371,7 +87379,7 @@
       </c>
       <c r="R773" s="2"/>
       <c r="S773" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="T773" t="s" s="2">
         <v>74</v>
@@ -87430,7 +87438,7 @@
     </row>
     <row r="774">
       <c r="A774" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B774" t="s" s="2">
         <v>1300</v>
@@ -87462,7 +87470,7 @@
         <v>84</v>
       </c>
       <c r="M774" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="N774" t="s" s="2">
         <v>868</v>
@@ -87535,7 +87543,7 @@
     </row>
     <row r="775">
       <c r="A775" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B775" t="s" s="2">
         <v>1303</v>
@@ -87642,7 +87650,7 @@
     </row>
     <row r="776">
       <c r="A776" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B776" t="s" s="2">
         <v>1305</v>
@@ -87749,7 +87757,7 @@
     </row>
     <row r="777">
       <c r="A777" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B777" t="s" s="2">
         <v>684</v>
@@ -87856,7 +87864,7 @@
     </row>
     <row r="778">
       <c r="A778" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B778" t="s" s="2">
         <v>690</v>
@@ -87961,7 +87969,7 @@
     </row>
     <row r="779">
       <c r="A779" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B779" t="s" s="2">
         <v>694</v>
@@ -88068,7 +88076,7 @@
     </row>
     <row r="780">
       <c r="A780" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B780" t="s" s="2">
         <v>700</v>
@@ -88175,7 +88183,7 @@
     </row>
     <row r="781">
       <c r="A781" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B781" t="s" s="2">
         <v>707</v>
@@ -88280,7 +88288,7 @@
     </row>
     <row r="782">
       <c r="A782" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B782" t="s" s="2">
         <v>712</v>
@@ -88385,7 +88393,7 @@
     </row>
     <row r="783">
       <c r="A783" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B783" t="s" s="2">
         <v>717</v>
@@ -88490,7 +88498,7 @@
     </row>
     <row r="784">
       <c r="A784" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B784" t="s" s="2">
         <v>1307</v>
@@ -88594,18 +88602,18 @@
         <v>723</v>
       </c>
       <c r="AK784" t="s" s="2">
-        <v>114</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B785" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C785" t="s" s="2">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D785" s="2"/>
       <c r="E785" t="s" s="2">
@@ -88702,13 +88710,13 @@
     </row>
     <row r="786">
       <c r="A786" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B786" t="s" s="2">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C786" t="s" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D786" s="2"/>
       <c r="E786" t="s" s="2">
@@ -88807,13 +88815,13 @@
     </row>
     <row r="787">
       <c r="A787" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B787" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C787" t="s" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D787" s="2"/>
       <c r="E787" t="s" s="2">
@@ -88836,19 +88844,19 @@
         <v>198</v>
       </c>
       <c r="L787" t="s" s="2">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="M787" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="N787" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="O787" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="P787" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="Q787" t="s" s="2">
         <v>74</v>
@@ -88897,7 +88905,7 @@
         <v>74</v>
       </c>
       <c r="AG787" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="AH787" t="s" s="2">
         <v>75</v>
@@ -88914,13 +88922,13 @@
     </row>
     <row r="788">
       <c r="A788" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B788" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C788" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D788" s="2"/>
       <c r="E788" t="s" s="2">
@@ -88946,20 +88954,20 @@
         <v>110</v>
       </c>
       <c r="M788" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="N788" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="O788" s="2"/>
       <c r="P788" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="Q788" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R788" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="S788" t="s" s="2">
         <v>74</v>
@@ -88983,10 +88991,10 @@
         <v>177</v>
       </c>
       <c r="Z788" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="AA788" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AB788" t="s" s="2">
         <v>74</v>
@@ -89004,7 +89012,7 @@
         <v>74</v>
       </c>
       <c r="AG788" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AH788" t="s" s="2">
         <v>75</v>
@@ -89021,13 +89029,13 @@
     </row>
     <row r="789">
       <c r="A789" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B789" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C789" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D789" s="2"/>
       <c r="E789" t="s" s="2">
@@ -89053,14 +89061,14 @@
         <v>84</v>
       </c>
       <c r="M789" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="N789" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="O789" s="2"/>
       <c r="P789" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="Q789" t="s" s="2">
         <v>74</v>
@@ -89109,7 +89117,7 @@
         <v>74</v>
       </c>
       <c r="AG789" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AH789" t="s" s="2">
         <v>75</v>
@@ -89126,13 +89134,13 @@
     </row>
     <row r="790">
       <c r="A790" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B790" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C790" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D790" s="2"/>
       <c r="E790" t="s" s="2">
@@ -89158,21 +89166,21 @@
         <v>103</v>
       </c>
       <c r="M790" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="N790" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="O790" s="2"/>
       <c r="P790" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="Q790" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R790" s="2"/>
       <c r="S790" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="T790" t="s" s="2">
         <v>74</v>
@@ -89214,7 +89222,7 @@
         <v>74</v>
       </c>
       <c r="AG790" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AH790" t="s" s="2">
         <v>75</v>
@@ -89223,7 +89231,7 @@
         <v>83</v>
       </c>
       <c r="AJ790" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AK790" t="s" s="2">
         <v>114</v>
@@ -89231,13 +89239,13 @@
     </row>
     <row r="791">
       <c r="A791" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B791" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C791" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D791" s="2"/>
       <c r="E791" t="s" s="2">
@@ -89263,23 +89271,23 @@
         <v>110</v>
       </c>
       <c r="M791" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="N791" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="O791" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="P791" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="Q791" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R791" s="2"/>
       <c r="S791" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="T791" t="s" s="2">
         <v>74</v>
@@ -89321,7 +89329,7 @@
         <v>74</v>
       </c>
       <c r="AG791" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AH791" t="s" s="2">
         <v>75</v>
@@ -89338,7 +89346,7 @@
     </row>
     <row r="792">
       <c r="A792" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B792" t="s" s="2">
         <v>724</v>
@@ -89443,7 +89451,7 @@
     </row>
     <row r="793">
       <c r="A793" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B793" t="s" s="2">
         <v>731</v>
@@ -89548,7 +89556,7 @@
     </row>
     <row r="794">
       <c r="A794" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B794" t="s" s="2">
         <v>738</v>
@@ -89655,7 +89663,7 @@
     </row>
     <row r="795">
       <c r="A795" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B795" t="s" s="2">
         <v>743</v>
@@ -89758,7 +89766,7 @@
     </row>
     <row r="796">
       <c r="A796" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B796" t="s" s="2">
         <v>748</v>
@@ -89863,7 +89871,7 @@
     </row>
     <row r="797">
       <c r="A797" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B797" t="s" s="2">
         <v>754</v>
@@ -89968,7 +89976,7 @@
     </row>
     <row r="798">
       <c r="A798" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B798" t="s" s="2">
         <v>759</v>
@@ -90073,7 +90081,7 @@
     </row>
     <row r="799">
       <c r="A799" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B799" t="s" s="2">
         <v>764</v>
@@ -90180,7 +90188,7 @@
     </row>
     <row r="800">
       <c r="A800" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B800" t="s" s="2">
         <v>770</v>
@@ -90283,7 +90291,7 @@
     </row>
     <row r="801">
       <c r="A801" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B801" t="s" s="2">
         <v>771</v>
@@ -90388,7 +90396,7 @@
     </row>
     <row r="802">
       <c r="A802" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B802" t="s" s="2">
         <v>772</v>
@@ -90495,7 +90503,7 @@
     </row>
     <row r="803">
       <c r="A803" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B803" t="s" s="2">
         <v>773</v>
@@ -90598,7 +90606,7 @@
     </row>
     <row r="804">
       <c r="A804" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B804" t="s" s="2">
         <v>778</v>
@@ -90701,7 +90709,7 @@
     </row>
     <row r="805">
       <c r="A805" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B805" t="s" s="2">
         <v>781</v>
@@ -90806,7 +90814,7 @@
     </row>
     <row r="806">
       <c r="A806" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B806" t="s" s="2">
         <v>787</v>
@@ -90911,7 +90919,7 @@
     </row>
     <row r="807">
       <c r="A807" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B807" t="s" s="2">
         <v>793</v>
@@ -91016,7 +91024,7 @@
     </row>
     <row r="808">
       <c r="A808" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B808" t="s" s="2">
         <v>798</v>
@@ -91119,7 +91127,7 @@
     </row>
     <row r="809">
       <c r="A809" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B809" t="s" s="2">
         <v>801</v>
@@ -91224,7 +91232,7 @@
     </row>
     <row r="810">
       <c r="A810" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B810" t="s" s="2">
         <v>806</v>
@@ -91329,7 +91337,7 @@
     </row>
     <row r="811">
       <c r="A811" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B811" t="s" s="2">
         <v>811</v>
@@ -91436,7 +91444,7 @@
     </row>
     <row r="812">
       <c r="A812" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B812" t="s" s="2">
         <v>816</v>
@@ -91539,7 +91547,7 @@
     </row>
     <row r="813">
       <c r="A813" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B813" t="s" s="2">
         <v>817</v>
@@ -91644,7 +91652,7 @@
     </row>
     <row r="814">
       <c r="A814" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B814" t="s" s="2">
         <v>818</v>
@@ -91751,7 +91759,7 @@
     </row>
     <row r="815">
       <c r="A815" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B815" t="s" s="2">
         <v>819</v>
@@ -91856,7 +91864,7 @@
     </row>
     <row r="816">
       <c r="A816" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B816" t="s" s="2">
         <v>823</v>
@@ -91963,7 +91971,7 @@
     </row>
     <row r="817">
       <c r="A817" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B817" t="s" s="2">
         <v>826</v>
@@ -92068,7 +92076,7 @@
     </row>
     <row r="818">
       <c r="A818" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B818" t="s" s="2">
         <v>830</v>
@@ -92173,7 +92181,7 @@
     </row>
     <row r="819">
       <c r="A819" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B819" t="s" s="2">
         <v>831</v>
